--- a/finetuning/it_datasets/it_dataset/it_el alia_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_el alia_dataset.xlsx
@@ -654,7 +654,8 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in el alia and looking for a delightful cafe experience, come to Venezia, located at 52CM+448 Venezia, Av. Habib Bourguiba, El Alia. With a rating of 4.3, this top-rated destination is perfect for Cafe lovers and is open daily from 04:00-00:00. For more details, call them at 52 705 807.</t>
+          <t>Venezia is a popular Cafe located in el alia at the coordinates (37.1701233, 10.0328689). 
+It has a rating of 4.3 and operates during the following hours: 04:00-00:00.</t>
         </is>
       </c>
     </row>
@@ -753,7 +754,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in el alia and looking for a great restaurant, check out Aliana Restaurant located at Aliana Restaurant, El Alia. This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.8923939, 35.5426177. For more details, visit their link at https://www.google.com/maps/place/Aliana+Restaurant/data=!4m7!3m6!1s0x12e2dd3620a9b67f:0xd9e6f07d19a95614!8m2!3d37.1705276!4d10.0328605!16s%2Fg%2F11j2xk5gt6!19sChIJf7apIDbd4hIRFFapGX3w5tk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 349 082.</t>
+          <t>Aliana Restaurant is situated at El Alia, Lebanon, it's coordinates are (33.8923939, 35.5426177). The restaurant has received a 4.0 rating based on 12 reviews. It serves various cuisines and is popular for its ambiance and service.</t>
         </is>
       </c>
     </row>
@@ -856,9 +857,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in el alia and looking for something fun to do, check out salon de the 8eme art located at C70, El Alia. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 37.1680428, 10.0351974. For more details, visit their website or call them at 46 501 410.</t>
+          <t>Located in El Alia, "Salon de Thé 8ème Art" is a highly-rated cafe (4.3/5 stars from 8 reviews) with a cozy atmosphere. Open 24 hours a day, it's a great spot for locals and tourists alike to enjoy a cup of coffee, tea, or a bite to eat. The cafe also offers free Wi-Fi and has a friendly staff.</t>
         </is>
       </c>
     </row>
@@ -961,7 +960,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in el alia and looking for something to do, check out Cafe Vienne located at 52HH+CPR Cafe Vienne, C70e, El Alia. This top-rated destination is perfect for Salon de the lovers. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 05:00-00:00. To get there, use these GPS coordinates: 37.1680428, 10.0351974. For more details, call them at 20 297 383.</t>
+          <t>Cafe Vienne is a tea room located in El Alia, Tunisia (37.1680428, 10.0351974). It is open every day from 5am to midnight and offers a variety of teas and other beverages. The tea room has a 4.8 rating on Google and is particularly appreciated for its friendly atmosphere and its delicious pastries.</t>
         </is>
       </c>
     </row>
@@ -1064,9 +1063,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in el alia and looking for something fun to do, check out Seventy Four 74 located at Av. Habib Bourguiba, El Alia. 
-This top-rated destination is perfect for Salon de the lovers and offers a range of Salon de the to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on None. To get there, use these GPS coordinates: 37.170874214467, 10.0303565426. For more details, visit their website at  or call them at 54 455 228.</t>
+          <t>Seventy Four 74 is a popular tea room located in El Alia. With a 5.0 rating based on 7 reviews, it's a highly-rated destination. Open from 6am to midnight daily, it's conveniently located at Av. Habib Bourguiba.</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1166,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in el alia and looking for a great cafe, check out Cafe Joker located at 528H+9VP Cafe Joker, Avenue Farhat Hached, El Alia. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe options to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 05:00-12:00, but closed on []. To get there, use these GPS coordinates: 37.1680428, 10.0351974. For more details, visit their website at https://www.google.com/maps/place/Cafe+Joker/data=!4m7!3m6!1s0x12e2dc53f1f34a73:0x9bd6e01d3fc36db6!8m2!3d37.1659611!4d10.0297167!16s%2Fg%2F11cp7pmq54!19sChIJc0rz8VPc4hIRtm3DPx3g1ps?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 631 143.</t>
+          <t>Cafe Joker is a popular cafe located at 528H+9VP Avenue Farhat Hached in El Alia, Tunisia. It offers a variety of coffee and tea drinks, as well as a selection of pastries and snacks. Cafe Joker is open from 5:00 AM to 12:00 PM, and is closed on Sundays. The cafe has received a 4.4-star rating out of 7 reviews on Google, and is known for its friendly service and relaxed atmosphere.</t>
         </is>
       </c>
     </row>
@@ -1264,7 +1261,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in el alia and looking for a great Cafe, check out Cafe YABBA located at 528M+P72 Cafe YABBA, Rue du Maghrebe Arabe, El Alia. This top-rated Cafe is a must-visit spot with a rating of 4.5. It's open during these hours: 05:30-23:00. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+YABBA/data=!4m7!3m6!1s0x12e2dc544d53b6db:0x726879fd910e44cb!8m2!3d37.1667503!4d10.0331539!16s%2Fg%2F11hcqf_p_4!19sChIJ27ZTTVTc4hIRy0QOkf15aHI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Café YABBA is a café located at Rue du Maghrebe Arabe, El Alia, Morocco. It is known for its cozy atmosphere and delicious coffee. The café offers a variety of coffee drinks, as well as pastries and other snacks. It is a popular spot for locals and tourists alike. The café is open from 5:30am to 11:00pm, seven days a week.</t>
         </is>
       </c>
     </row>
@@ -1367,9 +1364,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in el alia and looking for something fun to do, check out Le Kafee 7016 located at 52CH+CVX Le Kafee 7016, Av. Habib Bourguiba, El Alia. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 04:00-22:00. To get there, use these GPS coordinates: 37.170874214467, 10.0303565426. For more details, visit their website at https://www.google.com/maps/place/Le+Kafee+7016/data=!4m7!3m6!1s0x12e2dd76a917eb45:0xdd164f48fae52d36!8m2!3d37.1711017!4d10.0297425!16s%2Fg%2F11q22h3r8k!19sChIJResXqXbd4hIRNi3l-khPFt0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 20 428 647.</t>
+          <t>"Le Kafee 7016" is a cafe located in el alia, Tunisia. Its coordinates are (37.170874214467, 10.0303565426). The cafe is open from 4:00 am to 10:00 pm, and it is closed on Thursdays. It has a rating of 5.0 stars out of 5 based on 5 reviews.</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1455,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in el alia and looking for a great Cafe, check out Cafe Dali mqh~ ldly at 52CM+726. Cafe lovers will delight in its range of offerings. With a rating of 4.0, it's highly recommended. To plan your visit, refer to these coordinates: 37.1680428, 10.0351974. You may also visit their website at https://www.google.com/maps/place/Cafe+Dali+%D9%85%D9%82%D9%87%D9%89+%D8%A7%D9%84%D8%AF%D8%A7%D9%84%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x12e2ddab31cbdebf:0xf92641254dd6c898!8m2!3d37.1706531!4d10.032517!16s%2Fg%2F11bztb24l5!19sChIJv97LMavd4hIRmMjWTSVBJvk?authuser=0&amp;hl=fr&amp;rclk=1 for more information.</t>
+          <t>Cafe Dali mqh~ ldly is a cafe situated in el alia, Tunisia. It is located at the coordinates (37.1680428, 10.0351974) and offers a variety of amenities, including a welcoming atmosphere and delicious food and drinks.</t>
         </is>
       </c>
     </row>
@@ -1563,8 +1558,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in el alia and looking for a great cafe, check out Cafe Aziz located at 6X23+QFF Cafe Aziz, C70, El Alia. 
-This top-rated destination is perfect for cafe lovers. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 06:00-23:00. To get there, use these GPS coordinates: 37.1680428, 10.0351974. For more details, call them at 29 800 307.</t>
+          <t>The Cafe Aziz is located in el alia, Tunisia (37.1680428, 10.0351974). It has a 4.5 rating based on 2 reviews and its main category is Cafe.</t>
         </is>
       </c>
     </row>
@@ -1659,7 +1653,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in el alia and looking for a top-rated Cafe spot, check out Cafe Nassim located at 529M+8C Cafe Nassim, El Alia. With a rating of 5.0, this must-visit destination is perfect for Cafe lovers and offers a range of Cafe categories to choose from. It's open 24 hours a day, so you can visit anytime. To get there, use these GPS coordinates: 37.1680428, 10.0351974.</t>
+          <t>Cafe Nassim is a cafe located in El Alia. It offers a 5-star service, along with a convenient 24h opening time. Its exact location is (37.1680428, 10.0351974).</t>
         </is>
       </c>
     </row>
@@ -1762,7 +1756,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you find yourself in el alia and in search of a delicious meal, head on over to Restaurant Tawfik &amp; Riadh located at 52CG+JXV, Av. Habib Bourguiba, El Alia. This highly-rated establishment with a 4.5 rating is perfect for food enthusiasts and offers a variety of dining options. Open from 06:30-14:00, it's a must-visit spot. For further information, visit their website at https://www.google.com/maps/place/Restaurant+Tawfik+%26+Riadh/data=!4m7!3m6!1s0x12e2ddfbe9f908d7:0xf899609d396ee61d!8m2!3d37.1716142!4d10.0274076!16s%2Fg%2F11s8w97kjs!19sChIJ1wj56fvd4hIRHeZuOZ1gmfg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 94 151 748.</t>
+          <t>Restaurant Tawfik &amp; Riadh is a well-rated restaurant located in El Alia, Tunisia. It offers a variety of dishes and is open from 6:30 AM to 2 PM. The restaurant is located at 52CG+JXV, Av. Habib Bourguiba, El Alia and can be contacted at 94 151 748.</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1851,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in el alia, check out Oskar located at 5246+23R Oskar, et Khetmine, Route entre, El Alia. This top-rated destination is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.13453, 9.96924. For more details, visit their website at https://www.google.com/maps/place/Oskar/data=!4m7!3m6!1s0x12e2dddbad1b5735:0xe25a6c72602026fc!8m2!3d37.1551041!4d10.0101398!16s%2Fg%2F11sbw34plm!19sChIJNVcbrdvd4hIR_CYgYHJsWuI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>"Oskar" is a 5-star rated cafe located in el alia, Tunisia, at the coordinates (37.13453, 9.96924). Featuring a cozy atmosphere, delicious coffee, and a friendly owner named Oskar, this hidden gem is the perfect spot for those seeking a relaxing and enjoyable coffee experience.</t>
         </is>
       </c>
     </row>
@@ -1960,7 +1954,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>If you're in El Alia and craving a great vibe, visit S'cool Cafeteria at 52CH+M73. This top-rated cafe serves up an amazing range of cafe options, with a rating of 5.0. It's open from 06:00-23:00 daily. For more details, visit their website or call them at 20 193 550.</t>
+          <t>S'cool Cafeteria is a 5-star cafe, located in El Alia (lon: 10.0351974, lat: 37.1680428).</t>
         </is>
       </c>
     </row>
@@ -2059,7 +2053,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in el alia and looking for a top-rated restaurant, check out Restaurant et pizzeria SOLTan Fathi located at 528H+8XJ Restaurant et pizzeria SOLTan Fathi, El Alia. This 5.0-rated destination is perfect for restaurant lovers. To get there, use these GPS coordinates: 33.5910711, -7.5687025. For more details, visit their website or call them at 28 396 171.</t>
+          <t>Restaurant et pizzeria SOLTan Fathi is a restaurant located in El Alia, Morocco. The restaurant offers a variety of dining options, including traditional Moroccan dishes and pizzas. The restaurant has a 5.0 rating on Google and is located at the coordinates (33.5910711, -7.5687025).</t>
         </is>
       </c>
     </row>
@@ -2162,9 +2156,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in el alia and looking for something fun to do, check out chef Ayoub located at 529H+36F chef Ayoub, nhj ldktwr mHmwd lmTry,, El Alia. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.1680428, 10.0351974. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D100055936977142 or call them at 28 396 171.</t>
+          <t>**Chef Ayoub** is a fast food restaurant located in El Alia, Tunisia. It has a rating of 5.0 based on one review. The restaurant's phone number is 28 396 171, and its website is https://www.facebook.com/profile.php%3Fid%3D100055936977142.</t>
         </is>
       </c>
     </row>
@@ -2263,7 +2255,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you are in el alia and looking for a thrilling experience, head over to El Alia Port Marina. Located in 82RP+P3C El Alia, Ksour Essef, this top-rated place with a rating of 4.6 is the perfect destination for fans of Port de plaisance activities. It's open 24 hours a day, making it convenient for you to visit anytime. To get to El Alia Port Marina, use these GPS coordinates: (35.41808, 10.99475). For more details, visit their website at https://www.google.com/maps/place/El+Alia/data=!4m7!3m6!1s0x13018b98452eceb9:0xf4df3ec9ec9386c1!8m2!3d35.341815!4d11.035146!16s%2Fg%2F11f01qh5mt!19sChIJuc4uRZiLARMRwYaT7Mk-3_Q?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>El Alia is a 4.6-rated marina located in Ksour Essef, Tunisia, at coordinates (35.41808, 10.99475). It features 21 reviews and offers 24-hour access.</t>
         </is>
       </c>
     </row>
@@ -2366,7 +2358,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in el alia and looking for a reliable travel agency, consider Agence de voyages EL Alia located at Avenue Farhat Hached, El Alia 7016. This top-rated destination is perfect for travel enthusiasts and offers a range of services including travel booking and visa consulting. With a rating of 3.6, it's a must-visit spot for your travel needs. It's open during these hours: 08:00-12:30, 14:00-18:00, but closed on Sundays. To get there, use these GPS coordinates: 37.1740163, 10.0297964. For more details, visit their website or call them at 72 453 493.</t>
+          <t>Located in El Alia, Agence de voyages EL Alia offers a wide range of travel services. Situated at the coordinates (37.1740163, 10.0297964), the agency is conveniently accessible. Its services include travel planning, visa assistance, and flight bookings. With a rating of 3.6, the agency offers personalized travel solutions tailored to meet the needs of its clients.</t>
         </is>
       </c>
     </row>
@@ -2461,7 +2453,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in el alia and looking for a place of particular importance, head over to Cimetriere d'El Alia located at 52CP+VR3 Cimetriere d'El Alia, El Alia. With a rating of 4.5, this highly acclaimed Cimetiere is a popular spot among visitors. To get there, use these GPS coordinates: 37.16911, 10.03478. For any further information, you can visit their website.</t>
+          <t>Cimetriere d'El Alia is a cemetery located in el alia , with coordinates (37.16911, 10.03478).</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2556,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you're in el alia and looking for something fun to do, check out Cafe El Alia located at MFWR+3GM Cafe El Alia, place de l'independance, Soliman 8020. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 04:00-00:00. To get there, use these GPS coordinates: 36.739868, 10.5225008. For more details, visit their website or call them at 25 832 004.</t>
+          <t>Cafe El Alia is a cafe located in el alia. It has a rating of 4.2, 13 reviews and offers a variety of services. The cafe is open from 04:00-00:00 and is closed on []. The cafe's main category is Cafe and its categories are ['Cafe']. The cafe's website is nan and its phone number is 25 832 004. The cafe's address is MFWR+3GM Cafe El Alia, place de l'independance, Soliman 8020. The cafe's coordinates are (36.739868, 10.5225008).</t>
         </is>
       </c>
     </row>
@@ -2667,9 +2659,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you're in el alia and looking for a great Cafe, check out cafe El Alia located at RWPR+8M8 cafe El Alia, Jedeida. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 05:00-01:00. To get there, use these GPS coordinates: 36.8503161, 9.9355435. For more details, visit their website at https://lh5.googleusercontent.com/p/AF1QipN5-GW_RL3N2W5XJCr2FSzTjx9jWJVc71f2dcZj=w426-h240-k-no or call them at 90 064 322.</t>
+          <t>Café El Alia is a cozy cafe located in Jedeida, with a rating of 4.4 based on 5 reviews. It opens from 5:00 AM to 1:00 AM every day. Despite not having a known website or description, the cafe's featured image showcases an inviting ambiance. It specializes in cafe offerings and is easily accessible at its location at RWPR+8M8.</t>
         </is>
       </c>
     </row>
@@ -2768,11 +2758,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you're in el alia and looking for a top-rated Restaurant, check out Aliana Restaurant located at Aliana Restaurant, El Alia. 
-This destination offers a range of Restaurant to choose from. 
-With a rating of 4.0, it's a must-visit spot. 
-To get there, use these GPS coordinates: 33.8923939, 35.5426177. 
-For more details, visit their website or call them at 23 349 082.</t>
+          <t>Aliana Restaurant, located in el alia. It is a restaurant that offers a variety of dishes. The restaurant is well-rated, with a rating of 4.0 out of 5. It is open 7 days a week and can be contacted at 23 349 082.</t>
         </is>
       </c>
     </row>
@@ -2875,11 +2861,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you're in el alia and looking for a great Restaurant, check out Restaurant Tawfik &amp; Riadh located at 52CG+JXV Restaurant Tawfik &amp; Riadh, Av. Habib Bourguiba. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 06:30-14:00, but closed on []. 
-To get there, use these GPS coordinates: 15.350061, 44.195835. 
-For more details, call them at 94 151 748.</t>
+          <t>Restaurant Tawfik &amp; Riadh located in el alia (lon: 44.195835, lat: 15.350061) is a 4.5 stars rated restaurant, open from 06:30 am to 02 pm, and closed on none of the days of the week.</t>
         </is>
       </c>
     </row>
@@ -2982,7 +2964,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>If you're in el alia and looking for something fun to do, check out chef Ayoub located at 529H+36F chef Ayoub, nhj ldktwr mHmwd lmTry,, El Alia. This top-rated destination is perfect for Restauration rapide lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.1680428, 10.0351974. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D100055936977142 or call them at 28 396 171.</t>
+          <t>"Chef Ayoub" is a fast food restaurant located at ( 37.1680428, 10.0351974 ) in El Alia. It has a rating of 5.0.</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3063,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in el alia and looking for something to eat, explore Restaurant et pizzeria SOLTan Fathi. The location is 528H+8XJ Restaurant et pizzeria SOLTan Fathi, El Alia. This top-rated destination is perfect for Restaurant lovers with a rating of 5.0. You can contact them at 28 396 171 for more details.</t>
+          <t>Restaurant et pizzeria SOLTan Fathi is a restaurant located in el alia, Morocco. Its main category is Restaurant and it offers a range of dishes. The restaurant is highly rated, with a rating of 5.0 out of 5. It is located at the coordinates (33.5910711, -7.5687025).</t>
         </is>
       </c>
     </row>
@@ -3184,11 +3166,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>If you're in el alia and looking for something to do, check out Peage El Alia located at 525F+R98 Peage El Alia, El Alia. 
-This top-rated destination is perfect for Poste de peage lovers and offers a range of Poste de peage to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. 
-To get there, use these GPS coordinates: 37.16911, 10.03478. 
-For more details, visit their website at  or call them at 70 555 780.</t>
+          <t>Peage El Alia is a tollbooth located in 525F+R98 Peage El Alia, El Alia, Algeria on coordinates (37.16911, 10.03478). The tollbooth has a 4.0 rating. It's open 24/7.</t>
         </is>
       </c>
     </row>
